--- a/BalanceSheet/EA_bal.xlsx
+++ b/BalanceSheet/EA_bal.xlsx
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>109000000.0</v>
+        <v>164000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>51000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-84000000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>148000000.0</v>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>14000000.0</v>
+        <v>-1923000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>-1936000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10000000.0</v>
+        <v>-1893000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>-1902000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>7000000.0</v>
+        <v>-1826000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2000000.0</v>
